--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanggor\Documents\Wanggor\Project\pelabuhan\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C818020D-6612-4CBC-B1AE-BCB5F6AEAFF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769C7C8A-8301-48A8-8BF8-AC163F19D397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{4237FA56-EEE5-40CD-9C70-C83858DBAEA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{4237FA56-EEE5-40CD-9C70-C83858DBAEA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Biaya_Jarak_Teus" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="384">
   <si>
     <t>Ilwaki</t>
   </si>
@@ -1191,15 +1191,6 @@
   </si>
   <si>
     <t>Nilai Barang</t>
-  </si>
-  <si>
-    <t>A135</t>
-  </si>
-  <si>
-    <t>A138</t>
-  </si>
-  <si>
-    <t>A152</t>
   </si>
   <si>
     <t>Tanggal Awal</t>
@@ -12439,7 +12430,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13746,10 +13737,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D59823-B98E-469E-B8CC-629204B9A535}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -13762,7 +13753,7 @@
     <col min="6" max="16384" width="8.88671875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="A1" s="33" t="s">
         <v>111</v>
       </c>
@@ -13779,243 +13770,30 @@
         <v>378</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:10" ht="15.6">
       <c r="A2" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>76</v>
+        <v>127</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="C2" s="25">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="E2" s="25">
-        <f>C2*10</f>
-        <v>890</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="25">
-        <v>29</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="25">
-        <f t="shared" ref="E3:E7" si="0">C3*10</f>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="25">
-        <v>59</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="25">
-        <f t="shared" si="0"/>
-        <v>590</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="25">
-        <v>14</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="25">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="25">
-        <v>34</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="25">
-        <f t="shared" si="0"/>
-        <v>340</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="25">
-        <v>78</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="25">
-        <f t="shared" si="0"/>
-        <v>780</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="25">
-        <v>8</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="25">
-        <f t="shared" ref="E8:E11" si="1">C8*10</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="25">
-        <v>33</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="25">
-        <f t="shared" si="1"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="25">
-        <v>61</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="25">
-        <f t="shared" si="1"/>
-        <v>610</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="25">
-        <v>61</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="25">
-        <f t="shared" si="1"/>
-        <v>610</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="25">
-        <v>93</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="25">
-        <f t="shared" ref="E12:E14" si="2">C12*10</f>
-        <v>930</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="25">
-        <v>24</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="25">
-        <f t="shared" si="2"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="25" t="s">
-        <v>381</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="25">
-        <v>79</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="25">
-        <f t="shared" si="2"/>
-        <v>790</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14024,7 +13802,7 @@
   <dimension ref="A1:CK1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="CK11" sqref="C1:CK11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -14315,7 +14093,7 @@
         <v>95</v>
       </c>
       <c r="B3" s="15">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:89" ht="15" customHeight="1">
@@ -15147,14 +14925,13 @@
         <v>3</v>
       </c>
       <c r="I8" s="21">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="J8" s="23">
-        <f>3*24</f>
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="K8" s="22">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="L8" s="20">
         <v>3</v>
@@ -17183,8 +16960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7286BD-5A0E-422C-90AE-E5099F13B5E0}">
   <dimension ref="A1:CK996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -17472,7 +17249,7 @@
         <v>95</v>
       </c>
       <c r="B3" s="10">
-        <v>50</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:89" ht="15" customHeight="1">
@@ -20344,10 +20121,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B556AD0-CF09-4AD2-90F5-FEC655BECA7C}">
-  <dimension ref="A1:CF1000"/>
+  <dimension ref="A1:CK1000"/>
   <sheetViews>
-    <sheetView topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="BV1" sqref="BV1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -20357,259 +20134,274 @@
     <col min="73" max="16384" width="14.44140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="14.4">
+    <row r="1" spans="1:89" ht="14.4">
       <c r="A1"/>
       <c r="B1" s="11" t="s">
         <v>96</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="AA1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="AB1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="AC1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="AD1" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="AE1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="AF1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="AG1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="AH1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="AI1" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AK1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AL1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AM1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AN1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AO1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AP1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AQ1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AR1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AS1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AT1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AU1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AV1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AW1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AO1" s="12" t="s">
+      <c r="AX1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="AP1" s="12" t="s">
+      <c r="AY1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AZ1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AR1" s="12" t="s">
+      <c r="BA1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="BB1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="AT1" s="12" t="s">
+      <c r="BC1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AU1" s="12" t="s">
+      <c r="BD1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="12" t="s">
+      <c r="BE1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="BF1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AX1" s="12" t="s">
+      <c r="BG1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="BH1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AZ1" s="12" t="s">
+      <c r="BI1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="BA1" s="12" t="s">
+      <c r="BJ1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="BB1" s="12" t="s">
+      <c r="BK1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="BC1" s="12" t="s">
+      <c r="BL1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="BD1" s="12" t="s">
+      <c r="BM1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="BE1" s="12" t="s">
+      <c r="BN1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="BF1" s="12" t="s">
+      <c r="BO1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="BG1" s="12" t="s">
+      <c r="BP1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="BH1" s="12" t="s">
+      <c r="BQ1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="BI1" s="12" t="s">
+      <c r="BR1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="BJ1" s="12" t="s">
+      <c r="BS1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="BK1" s="12" t="s">
+      <c r="BT1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="BL1" s="12" t="s">
+      <c r="BU1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="BM1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN1" s="12" t="s">
+      <c r="BV1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="BO1" s="12" t="s">
+      <c r="BX1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="BP1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BQ1" s="12" t="s">
+      <c r="BY1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="BZ1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="BR1" s="12" t="s">
+      <c r="CA1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="BS1" s="12" t="s">
+      <c r="CB1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="BT1" s="12" t="s">
+      <c r="CC1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="BU1" s="13" t="s">
+      <c r="CD1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="BV1" s="12" t="s">
+      <c r="CE1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="BW1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="BX1" s="13" t="s">
+      <c r="CF1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="CG1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="BY1" s="13" t="s">
+      <c r="CH1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BZ1" s="13" t="s">
+      <c r="CI1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="CA1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="CB1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="CC1" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="CD1" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="CE1" s="11" t="s">
+      <c r="CJ1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="CF1" s="11" t="s">
+      <c r="CK1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:84" ht="15" customHeight="1">
+    <row r="2" spans="1:89" ht="15" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>94</v>
       </c>
@@ -20617,15 +20409,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:84" ht="15" customHeight="1">
+    <row r="3" spans="1:89" ht="15" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B3" s="15">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:84" ht="15" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:89" ht="15" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>110</v>
       </c>
@@ -20633,244 +20425,244 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:84" ht="14.4">
+    <row r="5" spans="1:89" ht="14.4">
       <c r="A5" s="12" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
+        <v>40</v>
+      </c>
+      <c r="D5" s="12">
+        <v>45</v>
+      </c>
+      <c r="E5" s="20">
+        <v>40</v>
+      </c>
+      <c r="F5" s="20">
+        <v>48</v>
+      </c>
+      <c r="G5" s="20">
+        <v>35</v>
+      </c>
+      <c r="H5" s="20">
+        <v>40</v>
+      </c>
+      <c r="I5" s="21">
+        <v>10</v>
+      </c>
+      <c r="J5" s="19">
+        <v>5</v>
+      </c>
+      <c r="K5" s="22">
+        <v>32.5</v>
+      </c>
+      <c r="L5" s="20">
         <v>181</v>
       </c>
-      <c r="D5" s="12">
+      <c r="M5" s="20">
         <v>126</v>
       </c>
-      <c r="E5" s="12">
+      <c r="N5" s="20">
         <v>129</v>
       </c>
-      <c r="F5" s="12">
+      <c r="O5" s="12">
         <v>164</v>
       </c>
-      <c r="G5" s="12">
+      <c r="P5" s="12">
         <v>181</v>
       </c>
-      <c r="H5" s="12">
+      <c r="Q5" s="12">
         <v>119</v>
       </c>
-      <c r="I5" s="12">
+      <c r="R5" s="12">
         <v>162</v>
       </c>
-      <c r="J5" s="12">
+      <c r="S5" s="12">
         <v>172</v>
       </c>
-      <c r="K5" s="12">
+      <c r="T5" s="12">
         <v>394</v>
       </c>
-      <c r="L5" s="12">
+      <c r="U5" s="12">
         <v>427</v>
       </c>
-      <c r="M5" s="12">
+      <c r="V5" s="12">
         <v>501</v>
       </c>
-      <c r="N5" s="12">
+      <c r="W5" s="12">
         <v>350</v>
       </c>
-      <c r="O5" s="12">
+      <c r="X5" s="12">
         <v>431</v>
       </c>
-      <c r="P5" s="12">
+      <c r="Y5" s="12">
         <v>320</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Z5" s="12">
         <v>437</v>
       </c>
-      <c r="R5" s="12">
+      <c r="AA5" s="12">
         <v>209</v>
       </c>
-      <c r="S5" s="12">
+      <c r="AB5" s="12">
         <v>380</v>
       </c>
-      <c r="T5" s="12">
+      <c r="AC5" s="12">
         <v>513</v>
       </c>
-      <c r="U5" s="12">
+      <c r="AD5" s="12">
         <v>247</v>
       </c>
-      <c r="V5" s="12">
+      <c r="AE5" s="12">
         <v>221</v>
       </c>
-      <c r="W5" s="12">
+      <c r="AF5" s="12">
         <v>155</v>
       </c>
-      <c r="X5" s="12">
+      <c r="AG5" s="12">
         <v>259</v>
       </c>
-      <c r="Y5" s="12">
+      <c r="AH5" s="12">
         <v>207</v>
       </c>
-      <c r="Z5" s="12">
+      <c r="AI5" s="12">
         <v>178</v>
       </c>
-      <c r="AA5" s="12">
+      <c r="AJ5" s="12">
         <v>311</v>
       </c>
-      <c r="AB5" s="12">
+      <c r="AK5" s="12">
         <v>302</v>
       </c>
-      <c r="AC5" s="12">
+      <c r="AL5" s="12">
         <v>290</v>
       </c>
-      <c r="AD5" s="12">
+      <c r="AM5" s="12">
         <v>222</v>
       </c>
-      <c r="AE5" s="12">
+      <c r="AN5" s="12">
         <v>207</v>
       </c>
-      <c r="AF5" s="12">
+      <c r="AO5" s="12">
         <v>259</v>
       </c>
-      <c r="AG5" s="12">
+      <c r="AP5" s="12">
         <v>323</v>
       </c>
-      <c r="AH5" s="12">
+      <c r="AQ5" s="12">
         <v>334</v>
       </c>
-      <c r="AI5" s="12">
+      <c r="AR5" s="12">
         <v>238</v>
       </c>
-      <c r="AJ5" s="12">
+      <c r="AS5" s="12">
         <v>208</v>
       </c>
-      <c r="AK5" s="12">
+      <c r="AT5" s="12">
         <v>244</v>
       </c>
-      <c r="AL5" s="12">
+      <c r="AU5" s="12">
         <v>300</v>
       </c>
-      <c r="AM5" s="12">
+      <c r="AV5" s="12">
         <v>253</v>
       </c>
-      <c r="AN5" s="12">
+      <c r="AW5" s="12">
         <v>311</v>
       </c>
-      <c r="AO5" s="12">
+      <c r="AX5" s="12">
         <v>315</v>
       </c>
-      <c r="AP5" s="12">
+      <c r="AY5" s="12">
         <v>221</v>
       </c>
-      <c r="AQ5" s="12">
+      <c r="AZ5" s="12">
         <v>282</v>
       </c>
-      <c r="AR5" s="12">
+      <c r="BA5" s="12">
         <v>185</v>
       </c>
-      <c r="AS5" s="12">
+      <c r="BB5" s="12">
         <v>440</v>
       </c>
-      <c r="AT5" s="12">
+      <c r="BC5" s="12">
         <v>325</v>
       </c>
-      <c r="AU5" s="12">
+      <c r="BD5" s="12">
         <v>382</v>
       </c>
-      <c r="AV5" s="12">
+      <c r="BE5" s="12">
         <v>436</v>
       </c>
-      <c r="AW5" s="12">
+      <c r="BF5" s="12">
         <v>293</v>
       </c>
-      <c r="AX5" s="12">
+      <c r="BG5" s="12">
         <v>480</v>
       </c>
-      <c r="AY5" s="12">
+      <c r="BH5" s="12">
         <v>366</v>
       </c>
-      <c r="AZ5" s="12">
+      <c r="BI5" s="12">
         <v>310</v>
       </c>
-      <c r="BA5" s="12">
+      <c r="BJ5" s="12">
         <v>384</v>
       </c>
-      <c r="BB5" s="12">
+      <c r="BK5" s="12">
         <v>322</v>
       </c>
-      <c r="BC5" s="12">
+      <c r="BL5" s="12">
         <v>383</v>
       </c>
-      <c r="BD5" s="12">
+      <c r="BM5" s="12">
         <v>238</v>
       </c>
-      <c r="BE5" s="12">
+      <c r="BN5" s="12">
         <v>352</v>
       </c>
-      <c r="BF5" s="12">
+      <c r="BO5" s="12">
         <v>322</v>
       </c>
-      <c r="BG5" s="12">
+      <c r="BP5" s="12">
         <v>261</v>
       </c>
-      <c r="BH5" s="12">
+      <c r="BQ5" s="12">
         <v>296</v>
       </c>
-      <c r="BI5" s="12">
+      <c r="BR5" s="12">
         <v>245</v>
       </c>
-      <c r="BJ5" s="12">
+      <c r="BS5" s="12">
         <v>244</v>
       </c>
-      <c r="BK5" s="12">
+      <c r="BT5" s="12">
         <v>248</v>
       </c>
-      <c r="BL5" s="12">
+      <c r="BU5" s="12">
         <v>191</v>
       </c>
-      <c r="BM5" s="12">
+      <c r="BV5" s="12">
         <v>221</v>
       </c>
-      <c r="BN5" s="12">
+      <c r="BW5" s="12">
         <v>180</v>
       </c>
-      <c r="BO5" s="12">
+      <c r="BX5" s="12">
         <v>283</v>
       </c>
-      <c r="BP5" s="12">
+      <c r="BY5" s="12">
         <v>156</v>
       </c>
-      <c r="BQ5" s="12">
+      <c r="BZ5" s="12">
         <v>163</v>
       </c>
-      <c r="BR5" s="12">
+      <c r="CA5" s="12">
         <v>220</v>
       </c>
-      <c r="BS5" s="12">
+      <c r="CB5" s="12">
         <v>189</v>
-      </c>
-      <c r="BT5" s="12">
-        <v>224</v>
-      </c>
-      <c r="BU5" s="12">
-        <v>224</v>
-      </c>
-      <c r="BV5" s="12">
-        <v>224</v>
-      </c>
-      <c r="BW5" s="12">
-        <v>224</v>
-      </c>
-      <c r="BX5" s="12">
-        <v>224</v>
-      </c>
-      <c r="BY5" s="12">
-        <v>224</v>
-      </c>
-      <c r="BZ5" s="12">
-        <v>224</v>
-      </c>
-      <c r="CA5" s="12">
-        <v>224</v>
-      </c>
-      <c r="CB5" s="12">
-        <v>224</v>
       </c>
       <c r="CC5" s="12">
         <v>224</v>
@@ -20884,46 +20676,61 @@
       <c r="CF5" s="12">
         <v>224</v>
       </c>
-    </row>
-    <row r="6" spans="1:84" ht="14.4">
+      <c r="CG5" s="12">
+        <v>224</v>
+      </c>
+      <c r="CH5" s="12">
+        <v>224</v>
+      </c>
+      <c r="CI5" s="12">
+        <v>224</v>
+      </c>
+      <c r="CJ5" s="12">
+        <v>224</v>
+      </c>
+      <c r="CK5" s="12">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:89" ht="14.4">
       <c r="A6" s="12" t="s">
         <v>88</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="12">
+        <v>120</v>
+      </c>
+      <c r="D6" s="12">
+        <v>120</v>
+      </c>
+      <c r="E6" s="20">
+        <v>120</v>
+      </c>
+      <c r="F6" s="20">
+        <v>120</v>
+      </c>
+      <c r="G6" s="20">
+        <v>120</v>
+      </c>
+      <c r="H6" s="20">
+        <v>120</v>
+      </c>
+      <c r="I6" s="21">
+        <v>8</v>
+      </c>
+      <c r="J6" s="23">
+        <v>4</v>
+      </c>
+      <c r="K6" s="22">
+        <v>6</v>
+      </c>
+      <c r="L6" s="20">
         <v>24</v>
       </c>
-      <c r="D6" s="12">
+      <c r="M6" s="20">
         <v>24</v>
       </c>
-      <c r="E6" s="12">
-        <v>24</v>
-      </c>
-      <c r="F6" s="12">
-        <v>24</v>
-      </c>
-      <c r="G6" s="12">
-        <v>24</v>
-      </c>
-      <c r="H6" s="12">
-        <v>24</v>
-      </c>
-      <c r="I6" s="12">
-        <v>24</v>
-      </c>
-      <c r="J6" s="12">
-        <v>24</v>
-      </c>
-      <c r="K6" s="12">
-        <v>24</v>
-      </c>
-      <c r="L6" s="12">
-        <v>24</v>
-      </c>
-      <c r="M6" s="12">
-        <v>24</v>
-      </c>
-      <c r="N6" s="12">
+      <c r="N6" s="20">
         <v>24</v>
       </c>
       <c r="O6" s="12">
@@ -21136,46 +20943,61 @@
       <c r="CF6" s="12">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:84" ht="14.4">
+      <c r="CG6" s="12">
+        <v>24</v>
+      </c>
+      <c r="CH6" s="12">
+        <v>24</v>
+      </c>
+      <c r="CI6" s="12">
+        <v>24</v>
+      </c>
+      <c r="CJ6" s="12">
+        <v>24</v>
+      </c>
+      <c r="CK6" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:89" ht="14.4">
       <c r="A7" s="12" t="s">
         <v>89</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="12">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12">
+        <v>4</v>
+      </c>
+      <c r="E7" s="20">
+        <v>4</v>
+      </c>
+      <c r="F7" s="20">
+        <v>4</v>
+      </c>
+      <c r="G7" s="20">
+        <v>4</v>
+      </c>
+      <c r="H7" s="20">
+        <v>4</v>
+      </c>
+      <c r="I7" s="21">
+        <v>2</v>
+      </c>
+      <c r="J7" s="23">
+        <v>2</v>
+      </c>
+      <c r="K7" s="22">
+        <v>2</v>
+      </c>
+      <c r="L7" s="20">
         <v>5</v>
       </c>
-      <c r="D7" s="12">
+      <c r="M7" s="20">
         <v>5</v>
       </c>
-      <c r="E7" s="12">
-        <v>5</v>
-      </c>
-      <c r="F7" s="12">
-        <v>5</v>
-      </c>
-      <c r="G7" s="12">
-        <v>5</v>
-      </c>
-      <c r="H7" s="12">
-        <v>5</v>
-      </c>
-      <c r="I7" s="12">
-        <v>5</v>
-      </c>
-      <c r="J7" s="12">
-        <v>5</v>
-      </c>
-      <c r="K7" s="12">
-        <v>5</v>
-      </c>
-      <c r="L7" s="12">
-        <v>5</v>
-      </c>
-      <c r="M7" s="12">
-        <v>5</v>
-      </c>
-      <c r="N7" s="12">
+      <c r="N7" s="20">
         <v>5</v>
       </c>
       <c r="O7" s="12">
@@ -21388,8 +21210,23 @@
       <c r="CF7" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:84" ht="14.4">
+      <c r="CG7" s="12">
+        <v>5</v>
+      </c>
+      <c r="CH7" s="12">
+        <v>5</v>
+      </c>
+      <c r="CI7" s="12">
+        <v>5</v>
+      </c>
+      <c r="CJ7" s="12">
+        <v>5</v>
+      </c>
+      <c r="CK7" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:89" ht="14.4">
       <c r="A8" s="12" t="s">
         <v>90</v>
       </c>
@@ -21400,34 +21237,34 @@
       <c r="D8" s="12">
         <v>3</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="20">
         <v>3</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="20">
         <v>3</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="20">
         <v>3</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="20">
         <v>3</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="21">
+        <v>1</v>
+      </c>
+      <c r="J8" s="23">
+        <v>1</v>
+      </c>
+      <c r="K8" s="22">
+        <v>1</v>
+      </c>
+      <c r="L8" s="20">
         <v>3</v>
       </c>
-      <c r="J8" s="12">
+      <c r="M8" s="20">
         <v>3</v>
       </c>
-      <c r="K8" s="12">
-        <v>3</v>
-      </c>
-      <c r="L8" s="12">
-        <v>3</v>
-      </c>
-      <c r="M8" s="12">
-        <v>3</v>
-      </c>
-      <c r="N8" s="12">
+      <c r="N8" s="20">
         <v>3</v>
       </c>
       <c r="O8" s="12">
@@ -21640,46 +21477,61 @@
       <c r="CF8" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:84" ht="14.4">
+      <c r="CG8" s="12">
+        <v>3</v>
+      </c>
+      <c r="CH8" s="12">
+        <v>3</v>
+      </c>
+      <c r="CI8" s="12">
+        <v>3</v>
+      </c>
+      <c r="CJ8" s="12">
+        <v>3</v>
+      </c>
+      <c r="CK8" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:89" ht="14.4">
       <c r="A9" s="12" t="s">
         <v>91</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="12">
+        <v>20000</v>
+      </c>
+      <c r="D9" s="12">
+        <v>20000</v>
+      </c>
+      <c r="E9" s="20">
+        <v>20000</v>
+      </c>
+      <c r="F9" s="20">
+        <v>20000</v>
+      </c>
+      <c r="G9" s="20">
+        <v>20000</v>
+      </c>
+      <c r="H9" s="20">
+        <v>20000</v>
+      </c>
+      <c r="I9" s="21">
+        <v>20000</v>
+      </c>
+      <c r="J9" s="23">
+        <v>20000</v>
+      </c>
+      <c r="K9" s="22">
+        <v>20000</v>
+      </c>
+      <c r="L9" s="20">
         <v>700</v>
       </c>
-      <c r="D9" s="12">
+      <c r="M9" s="20">
         <v>700</v>
       </c>
-      <c r="E9" s="12">
-        <v>700</v>
-      </c>
-      <c r="F9" s="12">
-        <v>700</v>
-      </c>
-      <c r="G9" s="12">
-        <v>700</v>
-      </c>
-      <c r="H9" s="12">
-        <v>700</v>
-      </c>
-      <c r="I9" s="12">
-        <v>700</v>
-      </c>
-      <c r="J9" s="12">
-        <v>700</v>
-      </c>
-      <c r="K9" s="12">
-        <v>700</v>
-      </c>
-      <c r="L9" s="12">
-        <v>700</v>
-      </c>
-      <c r="M9" s="12">
-        <v>700</v>
-      </c>
-      <c r="N9" s="12">
+      <c r="N9" s="20">
         <v>700</v>
       </c>
       <c r="O9" s="12">
@@ -21892,46 +21744,62 @@
       <c r="CF9" s="12">
         <v>700</v>
       </c>
-    </row>
-    <row r="10" spans="1:84" ht="14.4">
+      <c r="CG9" s="12">
+        <v>700</v>
+      </c>
+      <c r="CH9" s="12">
+        <v>700</v>
+      </c>
+      <c r="CI9" s="12">
+        <v>700</v>
+      </c>
+      <c r="CJ9" s="12">
+        <v>700</v>
+      </c>
+      <c r="CK9" s="12">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:89" ht="14.4">
       <c r="A10" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="12">
+        <v>183.33333333333334</v>
+      </c>
+      <c r="D10" s="12">
+        <v>183.33333333333334</v>
+      </c>
+      <c r="E10" s="20">
+        <v>183.33333333333334</v>
+      </c>
+      <c r="F10" s="20">
+        <v>183.33333333333334</v>
+      </c>
+      <c r="G10" s="20">
+        <v>183.33333333333334</v>
+      </c>
+      <c r="H10" s="20">
+        <v>183.33333333333334</v>
+      </c>
+      <c r="I10" s="21">
+        <v>375</v>
+      </c>
+      <c r="J10" s="23">
+        <f>9000/24</f>
+        <v>375</v>
+      </c>
+      <c r="K10" s="22">
+        <v>375</v>
+      </c>
+      <c r="L10" s="20">
         <v>22.916666666666668</v>
       </c>
-      <c r="D10" s="12">
+      <c r="M10" s="20">
         <v>22.916666666666668</v>
       </c>
-      <c r="E10" s="12">
-        <v>22.916666666666668</v>
-      </c>
-      <c r="F10" s="12">
-        <v>22.916666666666668</v>
-      </c>
-      <c r="G10" s="12">
-        <v>22.916666666666668</v>
-      </c>
-      <c r="H10" s="12">
-        <v>22.916666666666668</v>
-      </c>
-      <c r="I10" s="12">
-        <v>22.916666666666668</v>
-      </c>
-      <c r="J10" s="12">
-        <v>22.916666666666668</v>
-      </c>
-      <c r="K10" s="12">
-        <v>22.916666666666668</v>
-      </c>
-      <c r="L10" s="12">
-        <v>22.916666666666668</v>
-      </c>
-      <c r="M10" s="12">
-        <v>22.916666666666668</v>
-      </c>
-      <c r="N10" s="12">
+      <c r="N10" s="20">
         <v>22.916666666666668</v>
       </c>
       <c r="O10" s="12">
@@ -22144,46 +22012,61 @@
       <c r="CF10" s="12">
         <v>22.916666666666668</v>
       </c>
-    </row>
-    <row r="11" spans="1:84" ht="14.4">
+      <c r="CG10" s="12">
+        <v>22.916666666666668</v>
+      </c>
+      <c r="CH10" s="12">
+        <v>22.916666666666668</v>
+      </c>
+      <c r="CI10" s="12">
+        <v>22.916666666666668</v>
+      </c>
+      <c r="CJ10" s="12">
+        <v>22.916666666666668</v>
+      </c>
+      <c r="CK10" s="12">
+        <v>22.916666666666668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:89" ht="14.4">
       <c r="A11" s="12" t="s">
         <v>93</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="12">
+        <v>15000</v>
+      </c>
+      <c r="D11" s="12">
+        <v>15000</v>
+      </c>
+      <c r="E11" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F11" s="20">
+        <v>15000</v>
+      </c>
+      <c r="G11" s="20">
+        <v>15000</v>
+      </c>
+      <c r="H11" s="20">
+        <v>15000</v>
+      </c>
+      <c r="I11" s="24">
+        <v>15000</v>
+      </c>
+      <c r="J11" s="23">
+        <v>15000</v>
+      </c>
+      <c r="K11" s="22">
+        <v>15000</v>
+      </c>
+      <c r="L11" s="20">
         <v>900</v>
       </c>
-      <c r="D11" s="12">
+      <c r="M11" s="20">
         <v>900</v>
       </c>
-      <c r="E11" s="12">
-        <v>900</v>
-      </c>
-      <c r="F11" s="12">
-        <v>900</v>
-      </c>
-      <c r="G11" s="12">
-        <v>900</v>
-      </c>
-      <c r="H11" s="12">
-        <v>900</v>
-      </c>
-      <c r="I11" s="12">
-        <v>900</v>
-      </c>
-      <c r="J11" s="12">
-        <v>900</v>
-      </c>
-      <c r="K11" s="12">
-        <v>900</v>
-      </c>
-      <c r="L11" s="12">
-        <v>900</v>
-      </c>
-      <c r="M11" s="12">
-        <v>900</v>
-      </c>
-      <c r="N11" s="12">
+      <c r="N11" s="20">
         <v>900</v>
       </c>
       <c r="O11" s="12">
@@ -22394,6 +22277,21 @@
         <v>900</v>
       </c>
       <c r="CF11" s="12">
+        <v>900</v>
+      </c>
+      <c r="CG11" s="12">
+        <v>900</v>
+      </c>
+      <c r="CH11" s="12">
+        <v>900</v>
+      </c>
+      <c r="CI11" s="12">
+        <v>900</v>
+      </c>
+      <c r="CJ11" s="12">
+        <v>900</v>
+      </c>
+      <c r="CK11" s="12">
         <v>900</v>
       </c>
     </row>
@@ -23387,8 +23285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC93771-8FE0-4248-8EEE-4AB295A47998}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23400,13 +23298,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="36" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -23719,8 +23617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851089AA-D5A7-4C66-A791-D07CFCF5E603}">
   <dimension ref="A1:BZ43"/>
   <sheetViews>
-    <sheetView topLeftCell="AB18" workbookViewId="0">
-      <selection activeCell="AV41" sqref="AV41"/>
+    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
+      <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23732,10 +23630,10 @@
   <sheetData>
     <row r="1" spans="1:78">
       <c r="A1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C1" t="s">
         <v>39</v>
@@ -24034,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -24112,7 +24010,7 @@
         <v>0</v>
       </c>
       <c r="AW2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX2">
         <v>0</v>
@@ -24270,7 +24168,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -24348,7 +24246,7 @@
         <v>0</v>
       </c>
       <c r="AW3">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -24506,7 +24404,7 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -24584,7 +24482,7 @@
         <v>0</v>
       </c>
       <c r="AW4">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX4">
         <v>0</v>
@@ -24742,7 +24640,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -24820,7 +24718,7 @@
         <v>0</v>
       </c>
       <c r="AW5">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX5">
         <v>0</v>
@@ -24978,7 +24876,7 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -25056,7 +24954,7 @@
         <v>0</v>
       </c>
       <c r="AW6">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX6">
         <v>0</v>
@@ -25214,7 +25112,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -25292,7 +25190,7 @@
         <v>0</v>
       </c>
       <c r="AW7">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX7">
         <v>0</v>
@@ -25450,7 +25348,7 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -25528,7 +25426,7 @@
         <v>0</v>
       </c>
       <c r="AW8">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX8">
         <v>0</v>
@@ -25686,7 +25584,7 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -25764,7 +25662,7 @@
         <v>0</v>
       </c>
       <c r="AW9">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX9">
         <v>0</v>
@@ -25922,7 +25820,7 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -26000,7 +25898,7 @@
         <v>0</v>
       </c>
       <c r="AW10">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX10">
         <v>0</v>
@@ -26158,7 +26056,7 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -26236,7 +26134,7 @@
         <v>0</v>
       </c>
       <c r="AW11">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX11">
         <v>0</v>
@@ -26394,7 +26292,7 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -26472,7 +26370,7 @@
         <v>0</v>
       </c>
       <c r="AW12">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX12">
         <v>0</v>
@@ -26630,7 +26528,7 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -26708,7 +26606,7 @@
         <v>0</v>
       </c>
       <c r="AW13">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX13">
         <v>0</v>
@@ -26866,7 +26764,7 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -26944,7 +26842,7 @@
         <v>0</v>
       </c>
       <c r="AW14">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX14">
         <v>0</v>
@@ -27102,7 +27000,7 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -27180,7 +27078,7 @@
         <v>0</v>
       </c>
       <c r="AW15">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX15">
         <v>0</v>
@@ -27338,7 +27236,7 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X16">
         <v>0</v>
@@ -27416,7 +27314,7 @@
         <v>0</v>
       </c>
       <c r="AW16">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX16">
         <v>0</v>
@@ -27574,7 +27472,7 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -27652,7 +27550,7 @@
         <v>0</v>
       </c>
       <c r="AW17">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX17">
         <v>0</v>
@@ -27810,7 +27708,7 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -27888,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="AW18">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX18">
         <v>0</v>
@@ -28046,7 +27944,7 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -28124,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="AW19">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX19">
         <v>0</v>
@@ -28282,7 +28180,7 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -28360,7 +28258,7 @@
         <v>0</v>
       </c>
       <c r="AW20">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX20">
         <v>0</v>
@@ -28518,7 +28416,7 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -28596,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="AW21">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX21">
         <v>0</v>
@@ -28754,7 +28652,7 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -28832,7 +28730,7 @@
         <v>0</v>
       </c>
       <c r="AW22">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX22">
         <v>0</v>
@@ -28990,7 +28888,7 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -29068,7 +28966,7 @@
         <v>0</v>
       </c>
       <c r="AW23">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX23">
         <v>0</v>
@@ -29226,7 +29124,7 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -29304,7 +29202,7 @@
         <v>0</v>
       </c>
       <c r="AW24">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX24">
         <v>0</v>
@@ -29462,7 +29360,7 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -29540,7 +29438,7 @@
         <v>0</v>
       </c>
       <c r="AW25">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX25">
         <v>0</v>
@@ -29698,7 +29596,7 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -29776,7 +29674,7 @@
         <v>0</v>
       </c>
       <c r="AW26">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX26">
         <v>0</v>
@@ -29934,7 +29832,7 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -30012,7 +29910,7 @@
         <v>0</v>
       </c>
       <c r="AW27">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX27">
         <v>0</v>
@@ -30170,7 +30068,7 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -30248,7 +30146,7 @@
         <v>0</v>
       </c>
       <c r="AW28">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX28">
         <v>0</v>
@@ -30406,7 +30304,7 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X29">
         <v>0</v>
@@ -30484,7 +30382,7 @@
         <v>0</v>
       </c>
       <c r="AW29">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX29">
         <v>0</v>
@@ -30642,7 +30540,7 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -30720,7 +30618,7 @@
         <v>0</v>
       </c>
       <c r="AW30">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX30">
         <v>0</v>
@@ -30878,7 +30776,7 @@
         <v>0</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -30956,7 +30854,7 @@
         <v>0</v>
       </c>
       <c r="AW31">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX31">
         <v>0</v>
@@ -31114,7 +31012,7 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X32">
         <v>0</v>
@@ -31192,7 +31090,7 @@
         <v>0</v>
       </c>
       <c r="AW32">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX32">
         <v>0</v>
@@ -31350,7 +31248,7 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X33">
         <v>0</v>
@@ -31428,7 +31326,7 @@
         <v>0</v>
       </c>
       <c r="AW33">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX33">
         <v>0</v>
@@ -31586,7 +31484,7 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X34">
         <v>0</v>
@@ -31664,7 +31562,7 @@
         <v>0</v>
       </c>
       <c r="AW34">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX34">
         <v>0</v>
@@ -31822,7 +31720,7 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X35">
         <v>0</v>
@@ -31900,7 +31798,7 @@
         <v>0</v>
       </c>
       <c r="AW35">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX35">
         <v>0</v>
@@ -32058,7 +31956,7 @@
         <v>0</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X36">
         <v>0</v>
@@ -32136,7 +32034,7 @@
         <v>0</v>
       </c>
       <c r="AW36">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX36">
         <v>0</v>
@@ -32294,7 +32192,7 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -32372,7 +32270,7 @@
         <v>0</v>
       </c>
       <c r="AW37">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX37">
         <v>0</v>
@@ -32530,7 +32428,7 @@
         <v>0</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -32608,7 +32506,7 @@
         <v>0</v>
       </c>
       <c r="AW38">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX38">
         <v>0</v>
@@ -32766,7 +32664,7 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X39">
         <v>0</v>
@@ -32844,7 +32742,7 @@
         <v>0</v>
       </c>
       <c r="AW39">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX39">
         <v>0</v>
@@ -33002,7 +32900,7 @@
         <v>0</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X40">
         <v>0</v>
@@ -33080,7 +32978,7 @@
         <v>0</v>
       </c>
       <c r="AW40">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX40">
         <v>0</v>
@@ -33238,7 +33136,7 @@
         <v>0</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X41">
         <v>0</v>
@@ -33316,7 +33214,7 @@
         <v>0</v>
       </c>
       <c r="AW41">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX41">
         <v>0</v>
@@ -33474,7 +33372,7 @@
         <v>0</v>
       </c>
       <c r="W42">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X42">
         <v>0</v>
@@ -33552,7 +33450,7 @@
         <v>0</v>
       </c>
       <c r="AW42">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX42">
         <v>0</v>
@@ -33710,7 +33608,7 @@
         <v>0</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X43">
         <v>0</v>
@@ -33788,7 +33686,7 @@
         <v>0</v>
       </c>
       <c r="AW43">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AX43">
         <v>0</v>
@@ -33888,8 +33786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E3ABB0-6D15-4E78-AF6E-3E39FC146DC5}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B15" sqref="A15:B83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanggor\Documents\Wanggor\Project\pelabuhan\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769C7C8A-8301-48A8-8BF8-AC163F19D397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500A4724-33CE-4BA4-BFD7-F9979FA6F423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{4237FA56-EEE5-40CD-9C70-C83858DBAEA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{4237FA56-EEE5-40CD-9C70-C83858DBAEA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Biaya_Jarak_Teus" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="385">
   <si>
     <t>Ilwaki</t>
   </si>
@@ -1206,6 +1206,9 @@
   </si>
   <si>
     <t>Kategori 3</t>
+  </si>
+  <si>
+    <t>u-r</t>
   </si>
 </sst>
 </file>
@@ -12430,10 +12433,13 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D90" sqref="A2:D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -13739,8 +13745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D59823-B98E-469E-B8CC-629204B9A535}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -13771,20 +13777,23 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6">
-      <c r="A2" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="25">
-        <v>120</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>57</v>
+      <c r="A2" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2">
+        <v>700</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>24</v>
       </c>
       <c r="E2" s="25">
         <v>47</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>384</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -13802,7 +13811,7 @@
   <dimension ref="A1:CK1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -14093,7 +14102,7 @@
         <v>95</v>
       </c>
       <c r="B3" s="15">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:89" ht="15" customHeight="1">
@@ -16960,8 +16969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7286BD-5A0E-422C-90AE-E5099F13B5E0}">
   <dimension ref="A1:CK996"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -17249,7 +17258,7 @@
         <v>95</v>
       </c>
       <c r="B3" s="10">
-        <v>800</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:89" ht="15" customHeight="1">
@@ -20124,7 +20133,7 @@
   <dimension ref="A1:CK1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -23286,7 +23295,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23617,8 +23626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851089AA-D5A7-4C66-A791-D07CFCF5E603}">
   <dimension ref="A1:BZ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
-      <selection activeCell="V34" sqref="V34"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25820,7 +25829,7 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -26056,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -26292,7 +26301,7 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -26528,7 +26537,7 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -26764,7 +26773,7 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -27000,7 +27009,7 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -27236,7 +27245,7 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X16">
         <v>0</v>
@@ -27472,7 +27481,7 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -27708,7 +27717,7 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -27944,7 +27953,7 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -28180,7 +28189,7 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -28416,7 +28425,7 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -28652,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -28888,7 +28897,7 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -29124,7 +29133,7 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -29360,7 +29369,7 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -29596,7 +29605,7 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -29832,7 +29841,7 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -30068,7 +30077,7 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -30304,7 +30313,7 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X29">
         <v>0</v>
@@ -30540,7 +30549,7 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -30776,7 +30785,7 @@
         <v>0</v>
       </c>
       <c r="W31">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -31012,7 +31021,7 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X32">
         <v>0</v>
@@ -31248,7 +31257,7 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X33">
         <v>0</v>
@@ -31484,7 +31493,7 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X34">
         <v>0</v>
@@ -31720,7 +31729,7 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X35">
         <v>0</v>
@@ -31956,7 +31965,7 @@
         <v>0</v>
       </c>
       <c r="W36">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X36">
         <v>0</v>
@@ -32192,7 +32201,7 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -32428,7 +32437,7 @@
         <v>0</v>
       </c>
       <c r="W38">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -32664,7 +32673,7 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X39">
         <v>0</v>
@@ -32900,7 +32909,7 @@
         <v>0</v>
       </c>
       <c r="W40">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X40">
         <v>0</v>
@@ -33136,7 +33145,7 @@
         <v>0</v>
       </c>
       <c r="W41">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X41">
         <v>0</v>
@@ -33372,7 +33381,7 @@
         <v>0</v>
       </c>
       <c r="W42">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X42">
         <v>0</v>
@@ -33608,7 +33617,7 @@
         <v>0</v>
       </c>
       <c r="W43">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X43">
         <v>0</v>
@@ -33779,6 +33788,7 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -33787,7 +33797,7 @@
   <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanggor\Documents\Wanggor\Project\pelabuhan\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500A4724-33CE-4BA4-BFD7-F9979FA6F423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D565659-4BCF-4895-B156-72F402589D2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{4237FA56-EEE5-40CD-9C70-C83858DBAEA4}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="384">
   <si>
     <t>Ilwaki</t>
   </si>
@@ -1206,9 +1206,6 @@
   </si>
   <si>
     <t>Kategori 3</t>
-  </si>
-  <si>
-    <t>u-r</t>
   </si>
 </sst>
 </file>
@@ -13746,7 +13743,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -13780,20 +13777,17 @@
       <c r="A2" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>130</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>76</v>
-      </c>
-      <c r="C2">
-        <v>700</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>24</v>
       </c>
       <c r="E2" s="25">
         <v>47</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>384</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -16970,7 +16964,7 @@
   <dimension ref="A1:CK996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -23295,7 +23289,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -33797,7 +33791,7 @@
   <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanggor\Documents\Wanggor\Project\pelabuhan\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D565659-4BCF-4895-B156-72F402589D2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF9F281-45B8-4373-9EF8-BC98AD68E9B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{4237FA56-EEE5-40CD-9C70-C83858DBAEA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{4237FA56-EEE5-40CD-9C70-C83858DBAEA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Biaya_Jarak_Teus" sheetId="1" r:id="rId1"/>
@@ -13742,8 +13742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D59823-B98E-469E-B8CC-629204B9A535}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -13778,13 +13778,13 @@
         <v>115</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C2">
-        <v>130</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>76</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>57</v>
       </c>
       <c r="E2" s="25">
         <v>47</v>
@@ -23288,8 +23288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC93771-8FE0-4248-8EEE-4AB295A47998}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23620,8 +23620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851089AA-D5A7-4C66-A791-D07CFCF5E603}">
   <dimension ref="A1:BZ43"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24407,7 +24407,7 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -24879,7 +24879,7 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -25115,7 +25115,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -25351,7 +25351,7 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -25587,7 +25587,7 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <v>0</v>

--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanggor\Documents\Wanggor\Project\pelabuhan\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF9F281-45B8-4373-9EF8-BC98AD68E9B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B90B46-3D3A-476D-A2CF-FAC781F886E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{4237FA56-EEE5-40CD-9C70-C83858DBAEA4}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="384">
   <si>
     <t>Ilwaki</t>
   </si>
@@ -13740,10 +13740,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D59823-B98E-469E-B8CC-629204B9A535}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -13792,6 +13792,23 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.6">
+      <c r="A3" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>180</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="25">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -24407,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -24643,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X5">
         <v>0</v>

--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanggor\Documents\Wanggor\Project\pelabuhan\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B90B46-3D3A-476D-A2CF-FAC781F886E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F135218-47C1-49EB-8540-06E8A07314AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{4237FA56-EEE5-40CD-9C70-C83858DBAEA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{4237FA56-EEE5-40CD-9C70-C83858DBAEA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Biaya_Jarak_Teus" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="384">
   <si>
     <t>Ilwaki</t>
   </si>
@@ -12429,8 +12429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DEB37C-F1F6-4802-96BB-B6E3BD9E329B}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D90" sqref="A2:D90"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13740,10 +13740,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D59823-B98E-469E-B8CC-629204B9A535}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -13777,14 +13777,14 @@
       <c r="A2" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>46</v>
+      <c r="B2" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="C2">
         <v>7</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E2" s="25">
         <v>47</v>
@@ -13793,21 +13793,1500 @@
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10" ht="15.6">
+    <row r="3" spans="1:10">
       <c r="A3" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>76</v>
+      <c r="B3" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37">
+        <v>9</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47">
+        <v>9</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48">
+        <v>9</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>9</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59">
+        <v>7</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65">
+        <v>7</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E65" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66">
+        <v>9</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="B67" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="25">
-        <v>48</v>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E67" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68">
+        <v>9</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69">
+        <v>9</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70">
+        <v>9</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71">
+        <v>8</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E71" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E72" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74">
+        <v>8</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E74" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E75" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>6</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E76" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>8</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E78" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E81" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82">
+        <v>6</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E83" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C84">
+        <v>9</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E84" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>6</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E85" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E86" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87">
+        <v>7</v>
+      </c>
+      <c r="D87" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E87" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88">
+        <v>8</v>
+      </c>
+      <c r="D88" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E88" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
+      </c>
+      <c r="D89" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E89" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90">
+        <v>6</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="25">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -23305,8 +24784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC93771-8FE0-4248-8EEE-4AB295A47998}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23637,8 +25116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851089AA-D5A7-4C66-A791-D07CFCF5E603}">
   <dimension ref="A1:BZ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24896,7 +26375,7 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -25132,7 +26611,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -25368,7 +26847,7 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -25604,7 +27083,7 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X9">
         <v>0</v>

--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanggor\Documents\Wanggor\Project\pelabuhan\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F135218-47C1-49EB-8540-06E8A07314AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CD7FC6-4052-455A-A4C0-E9E28F6DB837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{4237FA56-EEE5-40CD-9C70-C83858DBAEA4}"/>
   </bookViews>
@@ -13742,8 +13742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D59823-B98E-469E-B8CC-629204B9A535}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E90"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E90" sqref="A9:E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>

--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanggor\Documents\Wanggor\Project\pelabuhan\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CD7FC6-4052-455A-A4C0-E9E28F6DB837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E779F01-C29C-4061-925D-84F0D5B782E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{4237FA56-EEE5-40CD-9C70-C83858DBAEA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{4237FA56-EEE5-40CD-9C70-C83858DBAEA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Biaya_Jarak_Teus" sheetId="1" r:id="rId1"/>
@@ -13742,7 +13742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D59823-B98E-469E-B8CC-629204B9A535}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E90" sqref="A9:E90"/>
     </sheetView>
   </sheetViews>
@@ -25116,8 +25116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851089AA-D5A7-4C66-A791-D07CFCF5E603}">
   <dimension ref="A1:BZ43"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25903,7 +25903,7 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -26611,7 +26611,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -26847,7 +26847,7 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -27083,7 +27083,7 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <v>0</v>

--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanggor\Documents\Wanggor\Project\pelabuhan\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E779F01-C29C-4061-925D-84F0D5B782E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FE3E8A-B408-435B-9C3D-8CD374B7464D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{4237FA56-EEE5-40CD-9C70-C83858DBAEA4}"/>
+    <workbookView xWindow="16608" yWindow="5268" windowWidth="6780" windowHeight="7440" activeTab="2" xr2:uid="{4237FA56-EEE5-40CD-9C70-C83858DBAEA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Biaya_Jarak_Teus" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="383">
   <si>
     <t>Ilwaki</t>
   </si>
@@ -1188,9 +1188,6 @@
   </si>
   <si>
     <t>LONGITUDE</t>
-  </si>
-  <si>
-    <t>Nilai Barang</t>
   </si>
   <si>
     <t>Tanggal Awal</t>
@@ -1886,7 +1883,7 @@
   <dimension ref="A1:CP93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13740,10 +13737,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D59823-B98E-469E-B8CC-629204B9A535}">
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E90" sqref="A9:E90"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -13752,11 +13749,10 @@
     <col min="2" max="2" width="21.33203125" style="25" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" style="25" customWidth="1"/>
     <col min="4" max="4" width="23" style="25" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="25"/>
+    <col min="5" max="16384" width="8.88671875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="33" t="s">
         <v>111</v>
       </c>
@@ -13769,11 +13765,8 @@
       <c r="D1" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="33" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.6">
+    </row>
+    <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="26" t="s">
         <v>115</v>
       </c>
@@ -13786,14 +13779,11 @@
       <c r="D2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="25">
-        <v>47</v>
-      </c>
+      <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="26" t="s">
         <v>116</v>
       </c>
@@ -13806,11 +13796,8 @@
       <c r="D3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="26" t="s">
         <v>117</v>
       </c>
@@ -13823,11 +13810,8 @@
       <c r="D4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
@@ -13840,11 +13824,8 @@
       <c r="D5" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="26" t="s">
         <v>119</v>
       </c>
@@ -13857,11 +13838,8 @@
       <c r="D6" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="26" t="s">
         <v>120</v>
       </c>
@@ -13874,11 +13852,8 @@
       <c r="D7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="26" t="s">
         <v>121</v>
       </c>
@@ -13891,11 +13866,8 @@
       <c r="D8" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="26" t="s">
         <v>122</v>
       </c>
@@ -13908,11 +13880,8 @@
       <c r="D9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="26" t="s">
         <v>123</v>
       </c>
@@ -13925,11 +13894,8 @@
       <c r="D10" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="26" t="s">
         <v>124</v>
       </c>
@@ -13942,11 +13908,8 @@
       <c r="D11" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="26" t="s">
         <v>125</v>
       </c>
@@ -13959,11 +13922,8 @@
       <c r="D12" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="26" t="s">
         <v>126</v>
       </c>
@@ -13976,11 +13936,8 @@
       <c r="D13" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="26" t="s">
         <v>127</v>
       </c>
@@ -13993,11 +13950,8 @@
       <c r="D14" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="26" t="s">
         <v>128</v>
       </c>
@@ -14010,11 +13964,8 @@
       <c r="D15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="26" t="s">
         <v>129</v>
       </c>
@@ -14027,11 +13978,8 @@
       <c r="D16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="26" t="s">
         <v>130</v>
       </c>
@@ -14044,11 +13992,8 @@
       <c r="D17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="26" t="s">
         <v>131</v>
       </c>
@@ -14061,11 +14006,8 @@
       <c r="D18" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="26" t="s">
         <v>132</v>
       </c>
@@ -14078,11 +14020,8 @@
       <c r="D19" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="26" t="s">
         <v>133</v>
       </c>
@@ -14095,11 +14034,8 @@
       <c r="D20" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="26" t="s">
         <v>134</v>
       </c>
@@ -14112,11 +14048,8 @@
       <c r="D21" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="26" t="s">
         <v>135</v>
       </c>
@@ -14129,11 +14062,8 @@
       <c r="D22" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="26" t="s">
         <v>136</v>
       </c>
@@ -14146,11 +14076,8 @@
       <c r="D23" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="26" t="s">
         <v>137</v>
       </c>
@@ -14163,11 +14090,8 @@
       <c r="D24" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="26" t="s">
         <v>138</v>
       </c>
@@ -14180,11 +14104,8 @@
       <c r="D25" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="26" t="s">
         <v>139</v>
       </c>
@@ -14197,11 +14118,8 @@
       <c r="D26" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="26" t="s">
         <v>140</v>
       </c>
@@ -14214,11 +14132,8 @@
       <c r="D27" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="26" t="s">
         <v>141</v>
       </c>
@@ -14231,11 +14146,8 @@
       <c r="D28" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="26" t="s">
         <v>142</v>
       </c>
@@ -14248,11 +14160,8 @@
       <c r="D29" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="26" t="s">
         <v>143</v>
       </c>
@@ -14265,11 +14174,8 @@
       <c r="D30" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="26" t="s">
         <v>144</v>
       </c>
@@ -14282,11 +14188,8 @@
       <c r="D31" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="26" t="s">
         <v>145</v>
       </c>
@@ -14299,11 +14202,8 @@
       <c r="D32" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="26" t="s">
         <v>146</v>
       </c>
@@ -14316,11 +14216,8 @@
       <c r="D33" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="26" t="s">
         <v>147</v>
       </c>
@@ -14333,11 +14230,8 @@
       <c r="D34" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="26" t="s">
         <v>148</v>
       </c>
@@ -14350,11 +14244,8 @@
       <c r="D35" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="26" t="s">
         <v>149</v>
       </c>
@@ -14367,11 +14258,8 @@
       <c r="D36" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="E36" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="26" t="s">
         <v>150</v>
       </c>
@@ -14384,11 +14272,8 @@
       <c r="D37" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="26" t="s">
         <v>151</v>
       </c>
@@ -14401,11 +14286,8 @@
       <c r="D38" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="26" t="s">
         <v>152</v>
       </c>
@@ -14418,11 +14300,8 @@
       <c r="D39" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="26" t="s">
         <v>153</v>
       </c>
@@ -14435,11 +14314,8 @@
       <c r="D40" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="26" t="s">
         <v>154</v>
       </c>
@@ -14452,11 +14328,8 @@
       <c r="D41" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="26" t="s">
         <v>155</v>
       </c>
@@ -14469,11 +14342,8 @@
       <c r="D42" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="26" t="s">
         <v>156</v>
       </c>
@@ -14486,11 +14356,8 @@
       <c r="D43" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="26" t="s">
         <v>157</v>
       </c>
@@ -14503,11 +14370,8 @@
       <c r="D44" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="26" t="s">
         <v>158</v>
       </c>
@@ -14520,11 +14384,8 @@
       <c r="D45" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="26" t="s">
         <v>159</v>
       </c>
@@ -14537,11 +14398,8 @@
       <c r="D46" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="26" t="s">
         <v>160</v>
       </c>
@@ -14554,11 +14412,8 @@
       <c r="D47" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E47" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="26" t="s">
         <v>161</v>
       </c>
@@ -14571,11 +14426,8 @@
       <c r="D48" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="26" t="s">
         <v>162</v>
       </c>
@@ -14588,11 +14440,8 @@
       <c r="D49" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="26" t="s">
         <v>163</v>
       </c>
@@ -14605,11 +14454,8 @@
       <c r="D50" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="26" t="s">
         <v>164</v>
       </c>
@@ -14622,11 +14468,8 @@
       <c r="D51" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="26" t="s">
         <v>165</v>
       </c>
@@ -14639,11 +14482,8 @@
       <c r="D52" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E52" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="26" t="s">
         <v>166</v>
       </c>
@@ -14656,11 +14496,8 @@
       <c r="D53" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E53" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="26" t="s">
         <v>167</v>
       </c>
@@ -14673,11 +14510,8 @@
       <c r="D54" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E54" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="26" t="s">
         <v>168</v>
       </c>
@@ -14690,11 +14524,8 @@
       <c r="D55" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E55" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="26" t="s">
         <v>169</v>
       </c>
@@ -14707,11 +14538,8 @@
       <c r="D56" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E56" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="26" t="s">
         <v>170</v>
       </c>
@@ -14724,11 +14552,8 @@
       <c r="D57" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E57" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="26" t="s">
         <v>171</v>
       </c>
@@ -14741,11 +14566,8 @@
       <c r="D58" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="26" t="s">
         <v>172</v>
       </c>
@@ -14758,11 +14580,8 @@
       <c r="D59" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="26" t="s">
         <v>173</v>
       </c>
@@ -14775,11 +14594,8 @@
       <c r="D60" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="26" t="s">
         <v>174</v>
       </c>
@@ -14792,11 +14608,8 @@
       <c r="D61" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E61" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="26" t="s">
         <v>175</v>
       </c>
@@ -14809,11 +14622,8 @@
       <c r="D62" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="26" t="s">
         <v>176</v>
       </c>
@@ -14826,11 +14636,8 @@
       <c r="D63" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E63" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="26" t="s">
         <v>177</v>
       </c>
@@ -14843,11 +14650,8 @@
       <c r="D64" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E64" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="26" t="s">
         <v>178</v>
       </c>
@@ -14860,11 +14664,8 @@
       <c r="D65" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E65" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="26" t="s">
         <v>179</v>
       </c>
@@ -14877,11 +14678,8 @@
       <c r="D66" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="26" t="s">
         <v>180</v>
       </c>
@@ -14894,11 +14692,8 @@
       <c r="D67" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E67" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="26" t="s">
         <v>181</v>
       </c>
@@ -14911,11 +14706,8 @@
       <c r="D68" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E68" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="26" t="s">
         <v>182</v>
       </c>
@@ -14928,11 +14720,8 @@
       <c r="D69" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E69" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="26" t="s">
         <v>183</v>
       </c>
@@ -14945,11 +14734,8 @@
       <c r="D70" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E70" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="26" t="s">
         <v>184</v>
       </c>
@@ -14962,11 +14748,8 @@
       <c r="D71" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="E71" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="26" t="s">
         <v>185</v>
       </c>
@@ -14979,11 +14762,8 @@
       <c r="D72" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E72" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="26" t="s">
         <v>186</v>
       </c>
@@ -14996,11 +14776,8 @@
       <c r="D73" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E73" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="26" t="s">
         <v>187</v>
       </c>
@@ -15013,11 +14790,8 @@
       <c r="D74" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="E74" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="26" t="s">
         <v>188</v>
       </c>
@@ -15030,11 +14804,8 @@
       <c r="D75" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E75" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="26" t="s">
         <v>189</v>
       </c>
@@ -15047,11 +14818,8 @@
       <c r="D76" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="26" t="s">
         <v>190</v>
       </c>
@@ -15064,11 +14832,8 @@
       <c r="D77" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E77" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="26" t="s">
         <v>191</v>
       </c>
@@ -15081,11 +14846,8 @@
       <c r="D78" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E78" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="26" t="s">
         <v>192</v>
       </c>
@@ -15098,11 +14860,8 @@
       <c r="D79" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="E79" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="26" t="s">
         <v>193</v>
       </c>
@@ -15115,11 +14874,8 @@
       <c r="D80" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E80" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="26" t="s">
         <v>194</v>
       </c>
@@ -15132,11 +14888,8 @@
       <c r="D81" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E81" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="26" t="s">
         <v>195</v>
       </c>
@@ -15149,11 +14902,8 @@
       <c r="D82" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E82" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="26" t="s">
         <v>196</v>
       </c>
@@ -15166,11 +14916,8 @@
       <c r="D83" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E83" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="26" t="s">
         <v>197</v>
       </c>
@@ -15183,11 +14930,8 @@
       <c r="D84" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E84" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="26" t="s">
         <v>198</v>
       </c>
@@ -15200,11 +14944,8 @@
       <c r="D85" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E85" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="26" t="s">
         <v>199</v>
       </c>
@@ -15217,11 +14958,8 @@
       <c r="D86" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E86" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="26" t="s">
         <v>200</v>
       </c>
@@ -15234,11 +14972,8 @@
       <c r="D87" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E87" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="26" t="s">
         <v>201</v>
       </c>
@@ -15251,11 +14986,8 @@
       <c r="D88" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="E88" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="26" t="s">
         <v>202</v>
       </c>
@@ -15268,11 +15000,8 @@
       <c r="D89" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="E89" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="26" t="s">
         <v>203</v>
       </c>
@@ -15284,9 +15013,6 @@
       </c>
       <c r="D90" s="26" t="s">
         <v>11</v>
-      </c>
-      <c r="E90" s="25">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -15298,10 +15024,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244B3F1C-1EDB-4CF7-97A1-7F6266183B6F}">
-  <dimension ref="A1:CK1000"/>
+  <dimension ref="A1:CK999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -15605,1870 +15331,1605 @@
     </row>
     <row r="5" spans="1:89" ht="14.4">
       <c r="A5" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" s="12">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D5" s="12">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="E5" s="20">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="F5" s="20">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="G5" s="20">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="H5" s="20">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="I5" s="21">
-        <v>10</v>
-      </c>
-      <c r="J5" s="19">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J5" s="23">
+        <v>4</v>
       </c>
       <c r="K5" s="22">
-        <v>32.5</v>
+        <v>6</v>
       </c>
       <c r="L5" s="20">
-        <v>181</v>
+        <v>24</v>
       </c>
       <c r="M5" s="20">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="N5" s="20">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="O5" s="12">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="P5" s="12">
-        <v>181</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="12">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="R5" s="12">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="S5" s="12">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="T5" s="12">
-        <v>394</v>
+        <v>24</v>
       </c>
       <c r="U5" s="12">
-        <v>427</v>
+        <v>24</v>
       </c>
       <c r="V5" s="12">
-        <v>501</v>
+        <v>24</v>
       </c>
       <c r="W5" s="12">
-        <v>350</v>
+        <v>24</v>
       </c>
       <c r="X5" s="12">
-        <v>431</v>
+        <v>24</v>
       </c>
       <c r="Y5" s="12">
-        <v>320</v>
+        <v>24</v>
       </c>
       <c r="Z5" s="12">
-        <v>437</v>
+        <v>24</v>
       </c>
       <c r="AA5" s="12">
-        <v>209</v>
+        <v>24</v>
       </c>
       <c r="AB5" s="12">
-        <v>380</v>
+        <v>24</v>
       </c>
       <c r="AC5" s="12">
-        <v>513</v>
+        <v>24</v>
       </c>
       <c r="AD5" s="12">
-        <v>247</v>
+        <v>24</v>
       </c>
       <c r="AE5" s="12">
-        <v>221</v>
+        <v>24</v>
       </c>
       <c r="AF5" s="12">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="AG5" s="12">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="AH5" s="12">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="AI5" s="12">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="AJ5" s="12">
-        <v>311</v>
+        <v>24</v>
       </c>
       <c r="AK5" s="12">
-        <v>302</v>
+        <v>24</v>
       </c>
       <c r="AL5" s="12">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="AM5" s="12">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="AN5" s="12">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="AO5" s="12">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="AP5" s="12">
-        <v>323</v>
+        <v>24</v>
       </c>
       <c r="AQ5" s="12">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="AR5" s="12">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c r="AS5" s="12">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="AT5" s="12">
-        <v>244</v>
+        <v>24</v>
       </c>
       <c r="AU5" s="12">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="AV5" s="12">
-        <v>253</v>
+        <v>24</v>
       </c>
       <c r="AW5" s="12">
-        <v>311</v>
+        <v>24</v>
       </c>
       <c r="AX5" s="12">
-        <v>315</v>
+        <v>24</v>
       </c>
       <c r="AY5" s="12">
-        <v>221</v>
+        <v>24</v>
       </c>
       <c r="AZ5" s="12">
-        <v>282</v>
+        <v>24</v>
       </c>
       <c r="BA5" s="12">
-        <v>185</v>
+        <v>24</v>
       </c>
       <c r="BB5" s="12">
-        <v>440</v>
+        <v>24</v>
       </c>
       <c r="BC5" s="12">
-        <v>325</v>
+        <v>24</v>
       </c>
       <c r="BD5" s="12">
-        <v>382</v>
+        <v>24</v>
       </c>
       <c r="BE5" s="12">
-        <v>436</v>
+        <v>24</v>
       </c>
       <c r="BF5" s="12">
-        <v>293</v>
+        <v>24</v>
       </c>
       <c r="BG5" s="12">
-        <v>480</v>
+        <v>24</v>
       </c>
       <c r="BH5" s="12">
-        <v>366</v>
+        <v>24</v>
       </c>
       <c r="BI5" s="12">
-        <v>310</v>
+        <v>24</v>
       </c>
       <c r="BJ5" s="12">
-        <v>384</v>
+        <v>24</v>
       </c>
       <c r="BK5" s="12">
-        <v>322</v>
+        <v>24</v>
       </c>
       <c r="BL5" s="12">
-        <v>383</v>
+        <v>24</v>
       </c>
       <c r="BM5" s="12">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c r="BN5" s="12">
-        <v>352</v>
+        <v>24</v>
       </c>
       <c r="BO5" s="12">
-        <v>322</v>
+        <v>24</v>
       </c>
       <c r="BP5" s="12">
-        <v>261</v>
+        <v>24</v>
       </c>
       <c r="BQ5" s="12">
-        <v>296</v>
+        <v>24</v>
       </c>
       <c r="BR5" s="12">
-        <v>245</v>
+        <v>24</v>
       </c>
       <c r="BS5" s="12">
-        <v>244</v>
+        <v>24</v>
       </c>
       <c r="BT5" s="12">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="BU5" s="12">
-        <v>191</v>
+        <v>24</v>
       </c>
       <c r="BV5" s="12">
-        <v>221</v>
+        <v>24</v>
       </c>
       <c r="BW5" s="12">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="BX5" s="12">
-        <v>283</v>
+        <v>24</v>
       </c>
       <c r="BY5" s="12">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="BZ5" s="12">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="CA5" s="12">
-        <v>220</v>
+        <v>24</v>
       </c>
       <c r="CB5" s="12">
-        <v>189</v>
+        <v>24</v>
       </c>
       <c r="CC5" s="12">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="CD5" s="12">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="CE5" s="12">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="CF5" s="12">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="CG5" s="12">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="CH5" s="12">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="CI5" s="12">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="CJ5" s="12">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="CK5" s="12">
-        <v>224</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:89" ht="14.4">
       <c r="A6" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" s="12">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="D6" s="12">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="E6" s="20">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="F6" s="20">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="G6" s="20">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="H6" s="20">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="I6" s="21">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J6" s="23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K6" s="22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L6" s="20">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="M6" s="20">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N6" s="20">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="O6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="P6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="Q6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="R6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="S6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="T6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="U6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="V6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="W6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="X6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="Y6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="Z6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AA6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AB6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AC6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AD6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AE6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AF6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AG6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AH6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AI6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AJ6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AK6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AL6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AM6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AN6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AO6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AP6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AQ6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AR6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AS6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AT6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AU6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AV6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AW6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AX6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AY6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AZ6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BA6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BB6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BC6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BD6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BE6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BF6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BG6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BH6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BI6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BJ6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BK6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BL6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BM6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BN6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BO6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BP6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BQ6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BR6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BS6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BT6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BU6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BV6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BW6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BX6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BY6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BZ6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="CA6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="CB6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="CC6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="CD6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="CE6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="CF6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="CG6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="CH6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="CI6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="CJ6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="CK6" s="12">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:89" ht="14.4">
       <c r="A7" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M7" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BA7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BD7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BE7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BF7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BI7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BK7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BL7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BM7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BN7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BO7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BP7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BQ7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BR7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BS7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BT7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BU7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BV7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BW7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BX7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BY7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BZ7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CA7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CB7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CC7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CD7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CE7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CF7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CG7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CH7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CI7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CJ7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CK7" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:89" ht="14.4">
       <c r="A8" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="12">
-        <v>3</v>
+        <v>20000</v>
       </c>
       <c r="D8" s="12">
-        <v>3</v>
+        <v>20000</v>
       </c>
       <c r="E8" s="20">
-        <v>3</v>
+        <v>20000</v>
       </c>
       <c r="F8" s="20">
-        <v>3</v>
+        <v>20000</v>
       </c>
       <c r="G8" s="20">
-        <v>3</v>
+        <v>20000</v>
       </c>
       <c r="H8" s="20">
-        <v>3</v>
+        <v>20000</v>
       </c>
       <c r="I8" s="21">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="J8" s="23">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="K8" s="22">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="L8" s="20">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="M8" s="20">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="N8" s="20">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="O8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="P8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="Q8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="R8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="S8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="T8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="U8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="V8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="W8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="X8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="Y8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="Z8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="AA8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="AB8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="AC8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="AD8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="AE8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="AF8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="AG8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="AH8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="AI8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="AJ8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="AK8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="AL8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="AM8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="AN8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="AO8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="AP8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="AQ8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="AR8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="AS8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="AT8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="AU8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="AV8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="AW8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="AX8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="AY8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="AZ8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="BA8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="BB8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="BC8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="BD8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="BE8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="BF8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="BG8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="BH8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="BI8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="BJ8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="BK8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="BL8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="BM8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="BN8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="BO8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="BP8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="BQ8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="BR8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="BS8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="BT8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="BU8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="BV8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="BW8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="BX8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="BY8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="BZ8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="CA8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="CB8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="CC8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="CD8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="CE8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="CF8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="CG8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="CH8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="CI8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="CJ8" s="12">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="CK8" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:89" ht="14.4">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:89" ht="15" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" s="12">
-        <v>20000</v>
+        <v>183.33333333333334</v>
       </c>
       <c r="D9" s="12">
-        <v>20000</v>
+        <v>183.33333333333334</v>
       </c>
       <c r="E9" s="20">
-        <v>20000</v>
+        <v>183.33333333333334</v>
       </c>
       <c r="F9" s="20">
-        <v>20000</v>
+        <v>183.33333333333334</v>
       </c>
       <c r="G9" s="20">
-        <v>20000</v>
+        <v>183.33333333333334</v>
       </c>
       <c r="H9" s="20">
-        <v>20000</v>
+        <v>183.33333333333334</v>
       </c>
       <c r="I9" s="21">
-        <v>20000</v>
+        <v>375</v>
       </c>
       <c r="J9" s="23">
-        <v>20000</v>
+        <f>9000/24</f>
+        <v>375</v>
       </c>
       <c r="K9" s="22">
-        <v>20000</v>
+        <v>375</v>
       </c>
       <c r="L9" s="20">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="M9" s="20">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="N9" s="20">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="O9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="P9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="Q9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="R9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="S9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="T9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="U9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="V9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="W9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="X9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="Y9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="Z9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="AA9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="AB9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="AC9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="AD9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="AE9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="AF9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="AG9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="AH9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="AI9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="AJ9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="AK9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="AL9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="AM9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="AN9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="AO9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="AP9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="AQ9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="AR9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="AS9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="AT9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="AU9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="AV9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="AW9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="AX9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="AY9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="AZ9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="BA9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="BB9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="BC9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="BD9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="BE9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="BF9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="BG9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="BH9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="BI9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="BJ9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="BK9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="BL9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="BM9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="BN9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="BO9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="BP9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="BQ9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="BR9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="BS9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="BT9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="BU9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="BV9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="BW9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="BX9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="BY9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="BZ9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="CA9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="CB9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="CC9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="CD9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="CE9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="CF9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="CG9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="CH9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="CI9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="CJ9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
       <c r="CK9" s="12">
-        <v>700</v>
+        <v>22.916666666666668</v>
       </c>
     </row>
     <row r="10" spans="1:89" ht="15" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" s="12">
-        <v>183.33333333333334</v>
+        <v>15000</v>
       </c>
       <c r="D10" s="12">
-        <v>183.33333333333334</v>
+        <v>15000</v>
       </c>
       <c r="E10" s="20">
-        <v>183.33333333333334</v>
+        <v>15000</v>
       </c>
       <c r="F10" s="20">
-        <v>183.33333333333334</v>
+        <v>15000</v>
       </c>
       <c r="G10" s="20">
-        <v>183.33333333333334</v>
+        <v>15000</v>
       </c>
       <c r="H10" s="20">
-        <v>183.33333333333334</v>
-      </c>
-      <c r="I10" s="21">
-        <v>375</v>
+        <v>15000</v>
+      </c>
+      <c r="I10" s="24">
+        <v>15000</v>
       </c>
       <c r="J10" s="23">
-        <f>9000/24</f>
-        <v>375</v>
+        <v>15000</v>
       </c>
       <c r="K10" s="22">
-        <v>375</v>
+        <v>15000</v>
       </c>
       <c r="L10" s="20">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="M10" s="20">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="N10" s="20">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="O10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="P10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="Q10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="R10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="S10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="T10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="U10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="V10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="W10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="X10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="Y10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="Z10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="AA10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="AB10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="AC10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="AD10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="AE10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="AF10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="AG10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="AH10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="AI10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="AJ10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="AK10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="AL10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="AM10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="AN10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="AO10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="AP10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="AQ10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="AR10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="AS10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="AT10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="AU10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="AV10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="AW10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="AX10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="AY10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="AZ10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="BA10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="BB10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="BC10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="BD10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="BE10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="BF10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="BG10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="BH10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="BI10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="BJ10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="BK10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="BL10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="BM10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="BN10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="BO10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="BP10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="BQ10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="BR10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="BS10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="BT10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="BU10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="BV10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="BW10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="BX10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="BY10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="BZ10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="CA10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="CB10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="CC10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="CD10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="CE10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="CF10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="CG10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="CH10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="CI10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="CJ10" s="12">
-        <v>22.916666666666668</v>
+        <v>900</v>
       </c>
       <c r="CK10" s="12">
-        <v>22.916666666666668</v>
-      </c>
-    </row>
-    <row r="11" spans="1:89" ht="15" customHeight="1">
-      <c r="A11" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="12">
-        <v>15000</v>
-      </c>
-      <c r="D11" s="12">
-        <v>15000</v>
-      </c>
-      <c r="E11" s="20">
-        <v>15000</v>
-      </c>
-      <c r="F11" s="20">
-        <v>15000</v>
-      </c>
-      <c r="G11" s="20">
-        <v>15000</v>
-      </c>
-      <c r="H11" s="20">
-        <v>15000</v>
-      </c>
-      <c r="I11" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J11" s="23">
-        <v>15000</v>
-      </c>
-      <c r="K11" s="22">
-        <v>15000</v>
-      </c>
-      <c r="L11" s="20">
         <v>900</v>
       </c>
-      <c r="M11" s="20">
-        <v>900</v>
-      </c>
-      <c r="N11" s="20">
-        <v>900</v>
-      </c>
-      <c r="O11" s="12">
-        <v>900</v>
-      </c>
-      <c r="P11" s="12">
-        <v>900</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>900</v>
-      </c>
-      <c r="R11" s="12">
-        <v>900</v>
-      </c>
-      <c r="S11" s="12">
-        <v>900</v>
-      </c>
-      <c r="T11" s="12">
-        <v>900</v>
-      </c>
-      <c r="U11" s="12">
-        <v>900</v>
-      </c>
-      <c r="V11" s="12">
-        <v>900</v>
-      </c>
-      <c r="W11" s="12">
-        <v>900</v>
-      </c>
-      <c r="X11" s="12">
-        <v>900</v>
-      </c>
-      <c r="Y11" s="12">
-        <v>900</v>
-      </c>
-      <c r="Z11" s="12">
-        <v>900</v>
-      </c>
-      <c r="AA11" s="12">
-        <v>900</v>
-      </c>
-      <c r="AB11" s="12">
-        <v>900</v>
-      </c>
-      <c r="AC11" s="12">
-        <v>900</v>
-      </c>
-      <c r="AD11" s="12">
-        <v>900</v>
-      </c>
-      <c r="AE11" s="12">
-        <v>900</v>
-      </c>
-      <c r="AF11" s="12">
-        <v>900</v>
-      </c>
-      <c r="AG11" s="12">
-        <v>900</v>
-      </c>
-      <c r="AH11" s="12">
-        <v>900</v>
-      </c>
-      <c r="AI11" s="12">
-        <v>900</v>
-      </c>
-      <c r="AJ11" s="12">
-        <v>900</v>
-      </c>
-      <c r="AK11" s="12">
-        <v>900</v>
-      </c>
-      <c r="AL11" s="12">
-        <v>900</v>
-      </c>
-      <c r="AM11" s="12">
-        <v>900</v>
-      </c>
-      <c r="AN11" s="12">
-        <v>900</v>
-      </c>
-      <c r="AO11" s="12">
-        <v>900</v>
-      </c>
-      <c r="AP11" s="12">
-        <v>900</v>
-      </c>
-      <c r="AQ11" s="12">
-        <v>900</v>
-      </c>
-      <c r="AR11" s="12">
-        <v>900</v>
-      </c>
-      <c r="AS11" s="12">
-        <v>900</v>
-      </c>
-      <c r="AT11" s="12">
-        <v>900</v>
-      </c>
-      <c r="AU11" s="12">
-        <v>900</v>
-      </c>
-      <c r="AV11" s="12">
-        <v>900</v>
-      </c>
-      <c r="AW11" s="12">
-        <v>900</v>
-      </c>
-      <c r="AX11" s="12">
-        <v>900</v>
-      </c>
-      <c r="AY11" s="12">
-        <v>900</v>
-      </c>
-      <c r="AZ11" s="12">
-        <v>900</v>
-      </c>
-      <c r="BA11" s="12">
-        <v>900</v>
-      </c>
-      <c r="BB11" s="12">
-        <v>900</v>
-      </c>
-      <c r="BC11" s="12">
-        <v>900</v>
-      </c>
-      <c r="BD11" s="12">
-        <v>900</v>
-      </c>
-      <c r="BE11" s="12">
-        <v>900</v>
-      </c>
-      <c r="BF11" s="12">
-        <v>900</v>
-      </c>
-      <c r="BG11" s="12">
-        <v>900</v>
-      </c>
-      <c r="BH11" s="12">
-        <v>900</v>
-      </c>
-      <c r="BI11" s="12">
-        <v>900</v>
-      </c>
-      <c r="BJ11" s="12">
-        <v>900</v>
-      </c>
-      <c r="BK11" s="12">
-        <v>900</v>
-      </c>
-      <c r="BL11" s="12">
-        <v>900</v>
-      </c>
-      <c r="BM11" s="12">
-        <v>900</v>
-      </c>
-      <c r="BN11" s="12">
-        <v>900</v>
-      </c>
-      <c r="BO11" s="12">
-        <v>900</v>
-      </c>
-      <c r="BP11" s="12">
-        <v>900</v>
-      </c>
-      <c r="BQ11" s="12">
-        <v>900</v>
-      </c>
-      <c r="BR11" s="12">
-        <v>900</v>
-      </c>
-      <c r="BS11" s="12">
-        <v>900</v>
-      </c>
-      <c r="BT11" s="12">
-        <v>900</v>
-      </c>
-      <c r="BU11" s="12">
-        <v>900</v>
-      </c>
-      <c r="BV11" s="12">
-        <v>900</v>
-      </c>
-      <c r="BW11" s="12">
-        <v>900</v>
-      </c>
-      <c r="BX11" s="12">
-        <v>900</v>
-      </c>
-      <c r="BY11" s="12">
-        <v>900</v>
-      </c>
-      <c r="BZ11" s="12">
-        <v>900</v>
-      </c>
-      <c r="CA11" s="12">
-        <v>900</v>
-      </c>
-      <c r="CB11" s="12">
-        <v>900</v>
-      </c>
-      <c r="CC11" s="12">
-        <v>900</v>
-      </c>
-      <c r="CD11" s="12">
-        <v>900</v>
-      </c>
-      <c r="CE11" s="12">
-        <v>900</v>
-      </c>
-      <c r="CF11" s="12">
-        <v>900</v>
-      </c>
-      <c r="CG11" s="12">
-        <v>900</v>
-      </c>
-      <c r="CH11" s="12">
-        <v>900</v>
-      </c>
-      <c r="CI11" s="12">
-        <v>900</v>
-      </c>
-      <c r="CJ11" s="12">
-        <v>900</v>
-      </c>
-      <c r="CK11" s="12">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="13" spans="1:89" ht="15" customHeight="1">
-      <c r="G13" s="12"/>
-    </row>
+    </row>
+    <row r="12" spans="1:89" ht="15" customHeight="1">
+      <c r="G12" s="12"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -18448,7 +17909,6 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -24797,13 +24257,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>381</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="36" t="s">
         <v>382</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -25116,7 +24576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851089AA-D5A7-4C66-A791-D07CFCF5E603}">
   <dimension ref="A1:BZ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
@@ -25129,10 +24589,10 @@
   <sheetData>
     <row r="1" spans="1:78">
       <c r="A1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" t="s">
         <v>379</v>
-      </c>
-      <c r="B1" t="s">
-        <v>380</v>
       </c>
       <c r="C1" t="s">
         <v>39</v>

--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanggor\Documents\Wanggor\Project\pelabuhan\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FE3E8A-B408-435B-9C3D-8CD374B7464D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D6CBEA-13DB-4A42-9AED-DAFE70DD6C88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16608" yWindow="5268" windowWidth="6780" windowHeight="7440" activeTab="2" xr2:uid="{4237FA56-EEE5-40CD-9C70-C83858DBAEA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="9" xr2:uid="{4237FA56-EEE5-40CD-9C70-C83858DBAEA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Biaya_Jarak_Teus" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,7 @@
     <sheet name="wave_status" sheetId="7" r:id="rId7"/>
     <sheet name="ports" sheetId="8" r:id="rId8"/>
     <sheet name="port_loc" sheetId="11" r:id="rId9"/>
-    <sheet name="barang_dummy_small" sheetId="16" r:id="rId10"/>
-    <sheet name="Rute" sheetId="17" r:id="rId11"/>
+    <sheet name="Rute" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="307">
   <si>
     <t>Ilwaki</t>
   </si>
@@ -401,76 +400,7 @@
     <t>Tujuan Pelabuhan</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>A14</t>
-  </si>
-  <si>
-    <t>A15</t>
-  </si>
-  <si>
-    <t>A16</t>
-  </si>
-  <si>
-    <t>A17</t>
-  </si>
-  <si>
-    <t>A18</t>
-  </si>
-  <si>
-    <t>A19</t>
-  </si>
-  <si>
     <t>A20</t>
-  </si>
-  <si>
-    <t>A21</t>
-  </si>
-  <si>
-    <t>A22</t>
-  </si>
-  <si>
-    <t>A23</t>
-  </si>
-  <si>
-    <t>A24</t>
   </si>
   <si>
     <t>A25</t>
@@ -480,174 +410,6 @@
   </si>
   <si>
     <t>A27</t>
-  </si>
-  <si>
-    <t>A28</t>
-  </si>
-  <si>
-    <t>A29</t>
-  </si>
-  <si>
-    <t>A30</t>
-  </si>
-  <si>
-    <t>A31</t>
-  </si>
-  <si>
-    <t>A32</t>
-  </si>
-  <si>
-    <t>A33</t>
-  </si>
-  <si>
-    <t>A34</t>
-  </si>
-  <si>
-    <t>A35</t>
-  </si>
-  <si>
-    <t>A36</t>
-  </si>
-  <si>
-    <t>A37</t>
-  </si>
-  <si>
-    <t>A38</t>
-  </si>
-  <si>
-    <t>A39</t>
-  </si>
-  <si>
-    <t>A40</t>
-  </si>
-  <si>
-    <t>A41</t>
-  </si>
-  <si>
-    <t>A42</t>
-  </si>
-  <si>
-    <t>A43</t>
-  </si>
-  <si>
-    <t>A44</t>
-  </si>
-  <si>
-    <t>A45</t>
-  </si>
-  <si>
-    <t>A46</t>
-  </si>
-  <si>
-    <t>A47</t>
-  </si>
-  <si>
-    <t>A48</t>
-  </si>
-  <si>
-    <t>A49</t>
-  </si>
-  <si>
-    <t>A50</t>
-  </si>
-  <si>
-    <t>A51</t>
-  </si>
-  <si>
-    <t>A52</t>
-  </si>
-  <si>
-    <t>A53</t>
-  </si>
-  <si>
-    <t>A54</t>
-  </si>
-  <si>
-    <t>A55</t>
-  </si>
-  <si>
-    <t>A56</t>
-  </si>
-  <si>
-    <t>A57</t>
-  </si>
-  <si>
-    <t>A58</t>
-  </si>
-  <si>
-    <t>A59</t>
-  </si>
-  <si>
-    <t>A60</t>
-  </si>
-  <si>
-    <t>A61</t>
-  </si>
-  <si>
-    <t>A62</t>
-  </si>
-  <si>
-    <t>A63</t>
-  </si>
-  <si>
-    <t>A64</t>
-  </si>
-  <si>
-    <t>A65</t>
-  </si>
-  <si>
-    <t>A66</t>
-  </si>
-  <si>
-    <t>A67</t>
-  </si>
-  <si>
-    <t>A68</t>
-  </si>
-  <si>
-    <t>A69</t>
-  </si>
-  <si>
-    <t>A70</t>
-  </si>
-  <si>
-    <t>A71</t>
-  </si>
-  <si>
-    <t>A72</t>
-  </si>
-  <si>
-    <t>A73</t>
-  </si>
-  <si>
-    <t>A74</t>
-  </si>
-  <si>
-    <t>A75</t>
-  </si>
-  <si>
-    <t>A76</t>
-  </si>
-  <si>
-    <t>A77</t>
-  </si>
-  <si>
-    <t>A78</t>
-  </si>
-  <si>
-    <t>A79</t>
-  </si>
-  <si>
-    <t>A80</t>
-  </si>
-  <si>
-    <t>A81</t>
-  </si>
-  <si>
-    <t>A82</t>
-  </si>
-  <si>
-    <t>A83</t>
   </si>
   <si>
     <t>A84</t>
@@ -1163,9 +925,6 @@
     <t>131°25'10.8"E</t>
   </si>
   <si>
-    <t>Kode Barang</t>
-  </si>
-  <si>
     <t>112°46'7" E</t>
   </si>
   <si>
@@ -1203,6 +962,18 @@
   </si>
   <si>
     <t>Kategori 3</t>
+  </si>
+  <si>
+    <t>3°20'16.1"S</t>
+  </si>
+  <si>
+    <t>107°04'00.2"E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 109°15'33.0"E</t>
+  </si>
+  <si>
+    <t>1°19'52.2"S</t>
   </si>
 </sst>
 </file>
@@ -1315,7 +1086,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1498,13 +1269,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1564,6 +1353,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1883,7 +1684,7 @@
   <dimension ref="A1:CP93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12423,1324 +12224,95 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DEB37C-F1F6-4802-96BB-B6E3BD9E329B}">
-  <dimension ref="A1:D90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2313015A-8265-4AFC-B00C-44D39E89E7D7}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D90"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16">
-        <v>8</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19">
-        <v>6</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22">
-        <v>9</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27">
-        <v>9</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30">
-        <v>6</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33">
-        <v>7</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34">
-        <v>9</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36">
-        <v>7</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37">
-        <v>9</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38">
-        <v>7</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41">
-        <v>8</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42">
-        <v>4</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44">
-        <v>6</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45">
-        <v>5</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46">
-        <v>4</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47">
-        <v>9</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48">
-        <v>9</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49">
-        <v>7</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50">
-        <v>9</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52">
-        <v>7</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53">
-        <v>8</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-      <c r="D56" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C57">
-        <v>8</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C58">
-        <v>7</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59">
-        <v>7</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60">
-        <v>4</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62">
-        <v>4</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63">
-        <v>8</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65">
-        <v>7</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66">
-        <v>9</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C68">
-        <v>9</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="B69" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C69">
-        <v>9</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70">
-        <v>9</v>
-      </c>
-      <c r="D70" s="26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C71">
-        <v>8</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72">
-        <v>4</v>
-      </c>
-      <c r="D72" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73">
-        <v>8</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C74">
-        <v>8</v>
-      </c>
-      <c r="D74" s="26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75">
-        <v>6</v>
-      </c>
-      <c r="D75" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="B76" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>6</v>
-      </c>
-      <c r="D76" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="B77" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C77">
-        <v>2</v>
-      </c>
-      <c r="D77" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C78">
-        <v>8</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C79">
-        <v>6</v>
-      </c>
-      <c r="D79" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="B80" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C80">
-        <v>4</v>
-      </c>
-      <c r="D80" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="B81" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81">
-        <v>5</v>
-      </c>
-      <c r="D81" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="B82" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C82">
-        <v>6</v>
-      </c>
-      <c r="D82" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="B83" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C83">
-        <v>5</v>
-      </c>
-      <c r="D83" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="B84" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C84">
-        <v>9</v>
-      </c>
-      <c r="D84" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="B85" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85">
-        <v>6</v>
-      </c>
-      <c r="D85" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="B86" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C86">
-        <v>5</v>
-      </c>
-      <c r="D86" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="B87" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C87">
-        <v>7</v>
-      </c>
-      <c r="D87" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="B88" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C88">
-        <v>8</v>
-      </c>
-      <c r="D88" s="26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="B89" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C89">
-        <v>8</v>
-      </c>
-      <c r="D89" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="B90" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C90">
-        <v>6</v>
-      </c>
-      <c r="D90" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2313015A-8265-4AFC-B00C-44D39E89E7D7}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>374</v>
+        <v>294</v>
       </c>
       <c r="B1" t="s">
-        <v>375</v>
+        <v>295</v>
       </c>
       <c r="C1" t="s">
-        <v>376</v>
+        <v>296</v>
       </c>
       <c r="D1" t="s">
-        <v>377</v>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="40"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="40"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="40"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D59823-B98E-469E-B8CC-629204B9A535}">
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -13771,13 +12343,13 @@
         <v>115</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
@@ -13788,13 +12360,13 @@
         <v>116</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -13802,13 +12374,13 @@
         <v>117</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -13816,13 +12388,13 @@
         <v>118</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -13830,13 +12402,13 @@
         <v>119</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -13844,13 +12416,13 @@
         <v>120</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -13858,13 +12430,13 @@
         <v>121</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -13872,13 +12444,13 @@
         <v>122</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -13886,13 +12458,13 @@
         <v>123</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -13900,1119 +12472,27 @@
         <v>124</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16">
-        <v>8</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19">
-        <v>6</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22">
-        <v>9</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27">
-        <v>9</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30">
-        <v>6</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33">
-        <v>7</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34">
-        <v>9</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36">
-        <v>7</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37">
-        <v>9</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38">
-        <v>7</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41">
-        <v>8</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42">
-        <v>4</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44">
-        <v>6</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45">
-        <v>5</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46">
-        <v>4</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47">
-        <v>9</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48">
-        <v>9</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49">
-        <v>7</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50">
-        <v>9</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52">
-        <v>7</v>
-      </c>
-      <c r="D52" s="26" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53">
-        <v>8</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-      <c r="D56" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C57">
-        <v>8</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C58">
-        <v>7</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59">
-        <v>7</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60">
-        <v>4</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62">
-        <v>4</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63">
-        <v>8</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65">
-        <v>7</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66">
-        <v>9</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C68">
-        <v>9</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="B69" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C69">
-        <v>9</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70">
-        <v>9</v>
-      </c>
-      <c r="D70" s="26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C71">
-        <v>8</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72">
-        <v>4</v>
-      </c>
-      <c r="D72" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73">
-        <v>8</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C74">
-        <v>8</v>
-      </c>
-      <c r="D74" s="26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75">
-        <v>6</v>
-      </c>
-      <c r="D75" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="B76" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>6</v>
-      </c>
-      <c r="D76" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="B77" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C77">
-        <v>2</v>
-      </c>
-      <c r="D77" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C78">
-        <v>8</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C79">
-        <v>6</v>
-      </c>
-      <c r="D79" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="B80" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C80">
-        <v>4</v>
-      </c>
-      <c r="D80" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="B81" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81">
-        <v>5</v>
-      </c>
-      <c r="D81" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="B82" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C82">
-        <v>6</v>
-      </c>
-      <c r="D82" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="B83" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C83">
-        <v>5</v>
-      </c>
-      <c r="D83" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="B84" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C84">
-        <v>9</v>
-      </c>
-      <c r="D84" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="B85" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85">
-        <v>6</v>
-      </c>
-      <c r="D85" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="B86" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C86">
-        <v>5</v>
-      </c>
-      <c r="D86" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="B87" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C87">
-        <v>7</v>
-      </c>
-      <c r="D87" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="B88" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C88">
-        <v>8</v>
-      </c>
-      <c r="D88" s="26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="B89" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C89">
-        <v>8</v>
-      </c>
-      <c r="D89" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="B90" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C90">
-        <v>6</v>
-      </c>
-      <c r="D90" s="26" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -15026,8 +12506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244B3F1C-1EDB-4CF7-97A1-7F6266183B6F}">
   <dimension ref="A1:CK999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A5:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -24244,8 +21724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC93771-8FE0-4248-8EEE-4AB295A47998}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24257,13 +21737,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="36" t="s">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>381</v>
+        <v>301</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>382</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -24576,8 +22056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851089AA-D5A7-4C66-A791-D07CFCF5E603}">
   <dimension ref="A1:BZ43"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24589,10 +22069,10 @@
   <sheetData>
     <row r="1" spans="1:78">
       <c r="A1" t="s">
-        <v>378</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s">
-        <v>379</v>
+        <v>299</v>
       </c>
       <c r="C1" t="s">
         <v>39</v>
@@ -26510,7 +23990,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -26746,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -26982,7 +24462,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -27218,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -27454,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -27690,7 +25170,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -27926,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -28162,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -28398,7 +25878,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -34747,7 +32227,7 @@
   <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -35425,8 +32905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33D6148-3AA2-41C2-B5BA-89EB4DFB6771}">
   <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C84" sqref="A28:C84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -35438,13 +32918,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="27" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>206</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -35452,10 +32932,10 @@
         <v>76</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>372</v>
+        <v>292</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>371</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -35463,10 +32943,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>373</v>
+        <v>293</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>370</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -35474,10 +32954,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>208</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -35485,10 +32965,10 @@
         <v>73</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>209</v>
+        <v>130</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -35496,10 +32976,10 @@
         <v>60</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>212</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -35507,10 +32987,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>214</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -35518,10 +32998,10 @@
         <v>21</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -35529,10 +33009,10 @@
         <v>30</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>217</v>
+        <v>138</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>218</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -35540,10 +33020,10 @@
         <v>44</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>219</v>
+        <v>140</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>220</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -35551,10 +33031,10 @@
         <v>33</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>221</v>
+        <v>142</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>222</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -35562,10 +33042,10 @@
         <v>35</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>224</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -35573,10 +33053,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>225</v>
+        <v>146</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>226</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -35584,10 +33064,10 @@
         <v>59</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>227</v>
+        <v>148</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -35595,10 +33075,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>230</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -35606,10 +33086,10 @@
         <v>85</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>231</v>
+        <v>152</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>232</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -35617,10 +33097,10 @@
         <v>49</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>233</v>
+        <v>154</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>234</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -35628,10 +33108,10 @@
         <v>24</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>235</v>
+        <v>156</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>236</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -35639,10 +33119,10 @@
         <v>78</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>237</v>
+        <v>158</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>238</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -35650,10 +33130,10 @@
         <v>36</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>240</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -35661,10 +33141,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>241</v>
+        <v>162</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>242</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -35672,10 +33152,10 @@
         <v>62</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>243</v>
+        <v>164</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>244</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -35683,10 +33163,10 @@
         <v>48</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>245</v>
+        <v>166</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>246</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -35694,10 +33174,10 @@
         <v>58</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>248</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -35705,10 +33185,10 @@
         <v>54</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>249</v>
+        <v>170</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>250</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -35716,10 +33196,10 @@
         <v>84</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>251</v>
+        <v>172</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>252</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -35727,10 +33207,10 @@
         <v>34</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>253</v>
+        <v>174</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -35738,10 +33218,10 @@
         <v>45</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>255</v>
+        <v>176</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>256</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -35749,10 +33229,10 @@
         <v>23</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>257</v>
+        <v>178</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>258</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -35760,10 +33240,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>259</v>
+        <v>180</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>260</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -35771,10 +33251,10 @@
         <v>69</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>261</v>
+        <v>182</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>262</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -35782,10 +33262,10 @@
         <v>104</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>263</v>
+        <v>184</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>264</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -35793,10 +33273,10 @@
         <v>43</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>265</v>
+        <v>186</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>266</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -35804,10 +33284,10 @@
         <v>80</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>268</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -35815,10 +33295,10 @@
         <v>105</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>269</v>
+        <v>190</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>270</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -35826,10 +33306,10 @@
         <v>4</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>271</v>
+        <v>192</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>272</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -35837,10 +33317,10 @@
         <v>106</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>273</v>
+        <v>194</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>274</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -35848,10 +33328,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>275</v>
+        <v>196</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>276</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -35859,10 +33339,10 @@
         <v>39</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>277</v>
+        <v>198</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>278</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -35870,10 +33350,10 @@
         <v>65</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>280</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -35881,10 +33361,10 @@
         <v>107</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>281</v>
+        <v>202</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>282</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -35892,10 +33372,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -35903,10 +33383,10 @@
         <v>14</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -35914,10 +33394,10 @@
         <v>70</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>288</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -35925,10 +33405,10 @@
         <v>11</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>290</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -35936,10 +33416,10 @@
         <v>12</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>291</v>
+        <v>212</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>292</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -35947,10 +33427,10 @@
         <v>61</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>293</v>
+        <v>214</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>294</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -35958,10 +33438,10 @@
         <v>31</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>295</v>
+        <v>216</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>296</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -35969,10 +33449,10 @@
         <v>82</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -35980,10 +33460,10 @@
         <v>9</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>299</v>
+        <v>220</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>300</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -35991,10 +33471,10 @@
         <v>53</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>301</v>
+        <v>222</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>302</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -36002,10 +33482,10 @@
         <v>83</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>303</v>
+        <v>224</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>304</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -36013,10 +33493,10 @@
         <v>32</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>305</v>
+        <v>226</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>306</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -36024,10 +33504,10 @@
         <v>27</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>307</v>
+        <v>228</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>308</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -36035,10 +33515,10 @@
         <v>56</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>309</v>
+        <v>230</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>310</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -36046,10 +33526,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>311</v>
+        <v>232</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>312</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -36057,10 +33537,10 @@
         <v>42</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>313</v>
+        <v>234</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>314</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -36068,10 +33548,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>315</v>
+        <v>236</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>316</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -36079,10 +33559,10 @@
         <v>19</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>318</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -36090,10 +33570,10 @@
         <v>41</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>319</v>
+        <v>240</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>320</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -36101,10 +33581,10 @@
         <v>74</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>321</v>
+        <v>242</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>322</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -36112,10 +33592,10 @@
         <v>15</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>323</v>
+        <v>244</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>324</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -36123,10 +33603,10 @@
         <v>20</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>325</v>
+        <v>246</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>326</v>
+        <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -36134,10 +33614,10 @@
         <v>2</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>327</v>
+        <v>248</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>328</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -36145,10 +33625,10 @@
         <v>67</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>329</v>
+        <v>250</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>330</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -36156,10 +33636,10 @@
         <v>28</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>331</v>
+        <v>252</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>332</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -36167,10 +33647,10 @@
         <v>57</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>333</v>
+        <v>254</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>334</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -36178,10 +33658,10 @@
         <v>63</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>335</v>
+        <v>256</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>336</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -36189,10 +33669,10 @@
         <v>40</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>337</v>
+        <v>258</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>338</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -36200,10 +33680,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>339</v>
+        <v>260</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>340</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -36211,10 +33691,10 @@
         <v>51</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>341</v>
+        <v>262</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>342</v>
+        <v>263</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -36222,10 +33702,10 @@
         <v>72</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>343</v>
+        <v>264</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>344</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -36233,10 +33713,10 @@
         <v>79</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>345</v>
+        <v>266</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>346</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -36244,10 +33724,10 @@
         <v>25</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>347</v>
+        <v>268</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>348</v>
+        <v>269</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -36255,10 +33735,10 @@
         <v>16</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>350</v>
+        <v>271</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -36266,10 +33746,10 @@
         <v>0</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>351</v>
+        <v>272</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>352</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -36277,10 +33757,10 @@
         <v>66</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>353</v>
+        <v>274</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>354</v>
+        <v>275</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -36288,10 +33768,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>355</v>
+        <v>276</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>356</v>
+        <v>277</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -36299,10 +33779,10 @@
         <v>64</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>357</v>
+        <v>278</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>358</v>
+        <v>279</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -36310,10 +33790,10 @@
         <v>108</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>359</v>
+        <v>280</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>360</v>
+        <v>281</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -36321,10 +33801,10 @@
         <v>86</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>361</v>
+        <v>282</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>362</v>
+        <v>283</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -36332,10 +33812,10 @@
         <v>109</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>363</v>
+        <v>284</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>364</v>
+        <v>285</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -36343,10 +33823,10 @@
         <v>29</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>365</v>
+        <v>286</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>366</v>
+        <v>287</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -36354,10 +33834,10 @@
         <v>71</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>367</v>
+        <v>288</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>368</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanggor\Documents\Wanggor\Project\pelabuhan\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D6CBEA-13DB-4A42-9AED-DAFE70DD6C88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAE6850-5E69-45E8-862D-237AA1EA872E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="9" xr2:uid="{4237FA56-EEE5-40CD-9C70-C83858DBAEA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="10" xr2:uid="{4237FA56-EEE5-40CD-9C70-C83858DBAEA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Biaya_Jarak_Teus" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="ports" sheetId="8" r:id="rId8"/>
     <sheet name="port_loc" sheetId="11" r:id="rId9"/>
     <sheet name="Rute" sheetId="17" r:id="rId10"/>
+    <sheet name="TL_PL_RUTE" sheetId="18" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="309">
   <si>
     <t>Ilwaki</t>
   </si>
@@ -975,6 +976,12 @@
   <si>
     <t>1°19'52.2"S</t>
   </si>
+  <si>
+    <t>Daftar Rute Tol Laut</t>
+  </si>
+  <si>
+    <t>Daftar Rute Pelni</t>
+  </si>
 </sst>
 </file>
 
@@ -1293,7 +1300,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1353,6 +1360,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1365,6 +1374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -12227,8 +12237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2313015A-8265-4AFC-B00C-44D39E89E7D7}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12254,10 +12264,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>73</v>
       </c>
       <c r="C2" s="31" t="s">
@@ -12268,8 +12278,8 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="40"/>
-      <c r="B3" s="37"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="31" t="s">
         <v>303</v>
       </c>
@@ -12278,8 +12288,8 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="40"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="31" t="s">
         <v>306</v>
       </c>
@@ -12288,8 +12298,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="40"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="28" t="s">
         <v>130</v>
       </c>
@@ -12304,6 +12314,159 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E87E26-6ABF-4B30-8964-7B51A59EDE4F}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="43"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="43"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="43"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="43"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="43"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="43"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="43"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="43"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="43"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="43"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="43"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="F14" s="43"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="F15" s="43"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="F16" s="43"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="43"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="43"/>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="43"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="43"/>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="43"/>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="43"/>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" s="43"/>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" s="43"/>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" s="43"/>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" s="43"/>
+    </row>
+    <row r="27" spans="6:6">
+      <c r="F27" s="43"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -32906,7 +33069,7 @@
   <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+      <selection activeCell="A2" sqref="A2:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
